--- a/biology/Botanique/Château_de_Vollrads/Château_de_Vollrads.xlsx
+++ b/biology/Botanique/Château_de_Vollrads/Château_de_Vollrads.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Vollrads</t>
+          <t>Château_de_Vollrads</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le château de Vollrads (Schloß Vollrads) est un château qui fait partie du domaine viticole de Schloß Vollrads, dans le Rheingau en Allemagne, dans une région de vignobles depuis huit cents ans. Son cépage est le riesling.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Vollrads</t>
+          <t>Château_de_Vollrads</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le château est nommé d'après les seigneurs de Winkel, dont l'un portait le nom de baptême de Vollradus en 1218. Le chevalier Conrad, en latin Conradus dictus Vollradus, détient le domaine en 1268, mais il n'est pas fait mention de bâtisses.
 Le château actuel est construit à  l'emplacement d'un ancien wasserburg avec donjon d'habitation datant du premier tiers du XIVe siècle. Les seigneurs de Greiffenclau héritent du domaine des Winkel au XIVe siècle et font construire une tour octogonale contre le donjon en 1471, avec fenêtres baroquisées en 1620.
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Vollrads</t>
+          <t>Château_de_Vollrads</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">(de) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en allemand intitulé « Schloss Vollrads » (voir la liste des auteurs).
 Sur les autres projets Wikimedia :
